--- a/data/hotels_by_city/Dallas/Dallas_shard_466.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_466.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>STR#</t>
   </si>
@@ -144,6 +144,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>andyp9360</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Meghan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r539868953-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>This place doesn't even deserve a star, it should be zero. Lived here for months and for starters, their staff are lazy and rude. They're nice to you at first but if you make any complaint, they turn on you and become rude, making it out like it's your fault. The other residents there are very loud, people smoke pot and just stare you down, lots of noisy kids, lazy housekeepers and bugs. I complained about there being bugs and was told to leave! Should I mention there's bed bugs? Nowhere I lived at have I ever had bed bugs and yet they place the blame on you and not on their building! Even other people complained about bed bugs but they tossed it out the window, stating they didn't know what they talked about. I have pics below of the bed bugs along the comforter the lazy housekeepers never change that has babies in it too. Plus they keep raising their rent for nothing. Perhaps a blessing getting out of this hell hole. I warn you to NOT stay here, it's a waste of your money.More</t>
   </si>
   <si>
+    <t>Cecil M E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r227310497-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Valerie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r214905400-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>I should have cancelled my reservation on the first day. I was kept waiting outside in 95* weather while he went to get his lunch (the office door was locked, even though a sign on the inside said "this door is to remain unlocked during business hours"...which it was well within those hours). When he did finally get there he was very rude and even mentioned how I was interrupting his hour long lunch "but I guess I can get you checked in". I was obviously ruining his entire day by asking questions because with each one he would answer as quickly and as shortly as he could and then get back to spouting rules and regulations at me. I think he was even the manager! Once I got to my room I found that it smelled like an ash tray had been dumped over every inch of it. The stove top doesn't work, the shower doesn't have any pressure, the wireless internet is a joke, and I'm still too mad about the guy who checked me in to go to the front desk to tell them! I'm stuck in hotels until my apartment is ready and if I can find another place to stay you can bet I'll be sprinting out of this place! I wouldn't stay here again if you paid me!!More</t>
   </si>
   <si>
+    <t>aRamblerMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r193096232-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>I have been here 17 hours and have been disturbed three times. Once was the cleaning lady who couldn't speak any English. Then I was sleeping and some guy without any InTown Suites uniform came knocking on my door wanting to see if the cleaning lady had cleaned the room. Later I found out that was the manger Craig Martin. I thought I was being robbed. If the cleaning lady could speak English or he bothered to see that I checked in 17 hours ago he would know why I didn't need any towels. Then a maintenance guy knocked on my door to see if everything worked. I said don't you check these things while you aren't renting out the rooms? He said his manager makes him do it. This Craig guy is a real Gem!! If you value your privacy, sanity, and sleep stay as far away from this place as possible!!!!More</t>
   </si>
   <si>
+    <t>BluffCityGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r187496500-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -274,6 +292,9 @@
   </si>
   <si>
     <t>I relocated to the DFW area for a job. In the meantime of waiting on our apartment to be prepared, my son (age 11) &amp; I stayed here for a week. It was ok budget wise, but if I wanted to up my budget, I definitely would have picked somewhere else. The office staff were friendly. It had the kitchenette area which was good since my son was with me. This helped cut down on eating out &amp; we were able to cook a few items. I got my deposit back upon check out too.However, the bed &amp; carpets were disgusting, bathroom so so. I quickly went to the store to by Lysol, Comet, &amp; Febreeze to sanitize as much of the place as possible. We wore socks &amp; shoes to keep our bare feet off the floor, yuck! My son's bed smelt like urine, eew! I went to wash the sheets in the "laundry facility" but only one washer was working out of the two &amp; neither dryer. I think housekeeping eventually came one day during our stay &amp; changed the sheets, but they were no better. I always had a vibe of being infested by bed bugs when sleeping in the beds, but we didn't actually see any (checking every time before going to sleep).Overall you get what you pay for. This won't be a quick choice again.   More</t>
+  </si>
+  <si>
+    <t>Rebelproud</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r182161566-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
@@ -790,43 +811,47 @@
       <c r="A2" t="n">
         <v>36308</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>162743</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -840,50 +865,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36308</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>68501</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -897,50 +926,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36308</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162744</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -958,41 +991,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36308</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>3475</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1021,50 +1058,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36308</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>162745</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1088,41 +1129,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36308</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>162746</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -1141,41 +1186,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36308</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>162747</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -1204,7 +1253,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_466.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_466.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>STR#</t>
   </si>
@@ -144,10 +144,7 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>andyp9360</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r576093292-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
@@ -177,9 +174,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Meghan K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r539868953-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>This place doesn't even deserve a star, it should be zero. Lived here for months and for starters, their staff are lazy and rude. They're nice to you at first but if you make any complaint, they turn on you and become rude, making it out like it's your fault. The other residents there are very loud, people smoke pot and just stare you down, lots of noisy kids, lazy housekeepers and bugs. I complained about there being bugs and was told to leave! Should I mention there's bed bugs? Nowhere I lived at have I ever had bed bugs and yet they place the blame on you and not on their building! Even other people complained about bed bugs but they tossed it out the window, stating they didn't know what they talked about. I have pics below of the bed bugs along the comforter the lazy housekeepers never change that has babies in it too. Plus they keep raising their rent for nothing. Perhaps a blessing getting out of this hell hole. I warn you to NOT stay here, it's a waste of your money.More</t>
   </si>
   <si>
-    <t>Cecil M E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r227310497-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Valerie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r214905400-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -249,9 +237,6 @@
     <t>I should have cancelled my reservation on the first day. I was kept waiting outside in 95* weather while he went to get his lunch (the office door was locked, even though a sign on the inside said "this door is to remain unlocked during business hours"...which it was well within those hours). When he did finally get there he was very rude and even mentioned how I was interrupting his hour long lunch "but I guess I can get you checked in". I was obviously ruining his entire day by asking questions because with each one he would answer as quickly and as shortly as he could and then get back to spouting rules and regulations at me. I think he was even the manager! Once I got to my room I found that it smelled like an ash tray had been dumped over every inch of it. The stove top doesn't work, the shower doesn't have any pressure, the wireless internet is a joke, and I'm still too mad about the guy who checked me in to go to the front desk to tell them! I'm stuck in hotels until my apartment is ready and if I can find another place to stay you can bet I'll be sprinting out of this place! I wouldn't stay here again if you paid me!!More</t>
   </si>
   <si>
-    <t>aRamblerMan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r193096232-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>I have been here 17 hours and have been disturbed three times. Once was the cleaning lady who couldn't speak any English. Then I was sleeping and some guy without any InTown Suites uniform came knocking on my door wanting to see if the cleaning lady had cleaned the room. Later I found out that was the manger Craig Martin. I thought I was being robbed. If the cleaning lady could speak English or he bothered to see that I checked in 17 hours ago he would know why I didn't need any towels. Then a maintenance guy knocked on my door to see if everything worked. I said don't you check these things while you aren't renting out the rooms? He said his manager makes him do it. This Craig guy is a real Gem!! If you value your privacy, sanity, and sleep stay as far away from this place as possible!!!!More</t>
   </si>
   <si>
-    <t>BluffCityGirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r187496500-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
   </si>
   <si>
     <t>I relocated to the DFW area for a job. In the meantime of waiting on our apartment to be prepared, my son (age 11) &amp; I stayed here for a week. It was ok budget wise, but if I wanted to up my budget, I definitely would have picked somewhere else. The office staff were friendly. It had the kitchenette area which was good since my son was with me. This helped cut down on eating out &amp; we were able to cook a few items. I got my deposit back upon check out too.However, the bed &amp; carpets were disgusting, bathroom so so. I quickly went to the store to by Lysol, Comet, &amp; Febreeze to sanitize as much of the place as possible. We wore socks &amp; shoes to keep our bare feet off the floor, yuck! My son's bed smelt like urine, eew! I went to wash the sheets in the "laundry facility" but only one washer was working out of the two &amp; neither dryer. I think housekeeping eventually came one day during our stay &amp; changed the sheets, but they were no better. I always had a vibe of being infested by bed bugs when sleeping in the beds, but we didn't actually see any (checking every time before going to sleep).Overall you get what you pay for. This won't be a quick choice again.   More</t>
-  </si>
-  <si>
-    <t>Rebelproud</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d225027-r182161566-InTown_Suites_Extended_Stay_Living_Six_Flags-Arlington_Texas.html</t>
@@ -811,47 +790,43 @@
       <c r="A2" t="n">
         <v>36308</v>
       </c>
-      <c r="B2" t="n">
-        <v>162743</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -865,54 +840,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36308</v>
       </c>
-      <c r="B3" t="n">
-        <v>68501</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -926,54 +897,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36308</v>
       </c>
-      <c r="B4" t="n">
-        <v>162744</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -991,45 +958,41 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36308</v>
       </c>
-      <c r="B5" t="n">
-        <v>3475</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1058,54 +1021,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36308</v>
       </c>
-      <c r="B6" t="n">
-        <v>162745</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1129,45 +1088,41 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36308</v>
       </c>
-      <c r="B7" t="n">
-        <v>162746</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -1186,45 +1141,41 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36308</v>
       </c>
-      <c r="B8" t="n">
-        <v>162747</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -1253,7 +1204,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
